--- a/src/excel-data/toukai.xlsx
+++ b/src/excel-data/toukai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69D1AD2-9FBD-5842-B4F4-09EE04A39A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7046976-DBC6-B54C-BE20-A54FDCCEADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>sortOrder</t>
   </si>
@@ -37,16 +37,10 @@
     <t>price_adult_regular</t>
   </si>
   <si>
-    <t>price_adult_advance</t>
-  </si>
-  <si>
     <t>price_adult_phone</t>
   </si>
   <si>
     <t>price_child_regular</t>
-  </si>
-  <si>
-    <t>price_child_advance</t>
   </si>
   <si>
     <t>price_child_phone</t>
@@ -135,13 +129,25 @@
   </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t>price_over65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_under15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_free</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +160,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,13 +188,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,18 +535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,139 +577,471 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="E2">
         <v>830</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="G2">
         <v>420</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
+      <c r="H2" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="97" spans="11:13">
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="11:13">
+      <c r="K98">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13">
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="11:13">
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="11:13">
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="11:13">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="11:13">
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="11:13">
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="11:13">
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="11:13">
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="11:13">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="11:13">
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="11:13">
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="11:13">
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="11:13">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="11:13">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="11:13">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="11:13">
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="11:13">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="11:13">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="11:13">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="11:13">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="11:13">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="11:13">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="11:13">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="11:13">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="11:13">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/toukai.xlsx
+++ b/src/excel-data/toukai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7046976-DBC6-B54C-BE20-A54FDCCEADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5585157-B102-3544-8B0D-CEF2F1580308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="239">
   <si>
     <t>sortOrder</t>
   </si>
@@ -101,28 +101,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sapporo-subway-1day</t>
-  </si>
-  <si>
-    <t>札幌市营地铁全线一日券</t>
-  </si>
-  <si>
-    <t>札幌地铁全线路的一日券，适合札幌市内一日游。</t>
-  </si>
-  <si>
     <t>现金支付; 购票机可购买</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>/images/coverage/sapporo-subway-1day.png</t>
-  </si>
-  <si>
-    <t>不问国籍所有游客皆可购买</t>
   </si>
   <si>
     <t>地铁</t>
@@ -140,6 +122,703 @@
   </si>
   <si>
     <t>price_free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MtFuji-ShizuokaChubu</t>
+  </si>
+  <si>
+    <t>富士山満喫きっぷ(静岡中部)</t>
+  </si>
+  <si>
+    <t>富士山畅游通票（静冈中部）</t>
+  </si>
+  <si>
+    <t>/images/coverage/MtFuji-ShizuokaChubu.png</t>
+  </si>
+  <si>
+    <t>MtFuji-ShizuokaTobu</t>
+  </si>
+  <si>
+    <t>富士山満喫きっぷ(静岡東部)</t>
+  </si>
+  <si>
+    <t>富士山畅游通票（静冈东部）</t>
+  </si>
+  <si>
+    <t>/images/coverage/MtFuji-ShizuokaTobu.png</t>
+  </si>
+  <si>
+    <t>Nagoya-Odekake</t>
+  </si>
+  <si>
+    <t>名古屋おでかけきっぷ</t>
+  </si>
+  <si>
+    <t>名古屋出游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagoya-Odekake.png</t>
+  </si>
+  <si>
+    <t>Fujinokuni-Ieyasukou-Tobu</t>
+  </si>
+  <si>
+    <t>ふじのくに家康公きっぷ【東部エリア】</t>
+  </si>
+  <si>
+    <t>富士之国家康公通票【东部地区】</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fujinokuni-Ieyasukou-Tobu.png</t>
+  </si>
+  <si>
+    <t>Fujinokuni-Ieyasukou-Chubu</t>
+  </si>
+  <si>
+    <t>ふじのくに家康公きっぷ【中部エリア】</t>
+  </si>
+  <si>
+    <t>富士之国家康公通票【中部地区】</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fujinokuni-Ieyasukou-Chubu.png</t>
+  </si>
+  <si>
+    <t>Fujinokuni-Ieyasukou-Seibu</t>
+  </si>
+  <si>
+    <t>ふじのくに家康公きっぷ【西部エリア】</t>
+  </si>
+  <si>
+    <t>富士之国家康公通票【西部地区】</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fujinokuni-Ieyasukou-Seibu.png</t>
+  </si>
+  <si>
+    <t>Aozora-FreePass</t>
+  </si>
+  <si>
+    <t>青空フリーパス</t>
+  </si>
+  <si>
+    <t>青空自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Aozora-FreePass.png</t>
+  </si>
+  <si>
+    <t>Holiday-Norihodai</t>
+  </si>
+  <si>
+    <t>休日乗り放題きっぷ</t>
+  </si>
+  <si>
+    <t>假日无限乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Holiday-Norihodai.png</t>
+  </si>
+  <si>
+    <t>JRTokai-16Private-Tabi</t>
+  </si>
+  <si>
+    <t>ＪＲ東海＆16 私鉄 乗り鉄☆たびきっぷ</t>
+  </si>
+  <si>
+    <t>JR东海&amp;16家铁铁路旅行通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRTokai-16Private-Tabi.png</t>
+  </si>
+  <si>
+    <t>Sunzu-Tetsudo-Travel</t>
+  </si>
+  <si>
+    <t>駿豆線一日乗り放題乗車券・旅助け</t>
+  </si>
+  <si>
+    <t>驿豆线一日无限乘车券・旅行援助</t>
+  </si>
+  <si>
+    <t>/images/coverage/Sunzu-Tetsudo-Travel.png</t>
+  </si>
+  <si>
+    <t>Fujikyu-Express-Free</t>
+  </si>
+  <si>
+    <t>富士急特急フリーきっぷ</t>
+  </si>
+  <si>
+    <t>富士急特急自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fujikyu-Express-Free.png</t>
+  </si>
+  <si>
+    <t>FujiFiveLakes-Pass-Set</t>
+  </si>
+  <si>
+    <t>富士山・富士五湖パスポート(富士急電車セット)</t>
+  </si>
+  <si>
+    <t>富士山富士五湖通票（富士急电车套票）</t>
+  </si>
+  <si>
+    <t>/images/coverage/FujiFiveLakes-Pass-Set.png</t>
+  </si>
+  <si>
+    <t>FujiFiveLakes-Pass</t>
+  </si>
+  <si>
+    <t>富士山・富士五湖パスポート</t>
+  </si>
+  <si>
+    <t>富士山富士五湖通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/FujiFiveLakes-Pass.png</t>
+  </si>
+  <si>
+    <t>Fujiyoshida-Odekake-Free</t>
+  </si>
+  <si>
+    <t>富士吉田お出かけフリーきっぷ</t>
+  </si>
+  <si>
+    <t>富士吉田出游自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fujiyoshida-Odekake-Free.png</t>
+  </si>
+  <si>
+    <t>Fuzisam-Marugoto</t>
+  </si>
+  <si>
+    <t>富士山まるごときっぷ</t>
+  </si>
+  <si>
+    <t>富士山全包通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fuzisam-Marugoto.png</t>
+  </si>
+  <si>
+    <t>Gakunan-OneDay-Free</t>
+  </si>
+  <si>
+    <t>１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>岳南铁道一日自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Gakunan-OneDay-Free.png</t>
+  </si>
+  <si>
+    <t>Shizutetsu-OneDay-Pass</t>
+  </si>
+  <si>
+    <t>静鉄電車ワンデーパス</t>
+  </si>
+  <si>
+    <t>静冈铁道一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shizutetsu-OneDay-Pass.png</t>
+  </si>
+  <si>
+    <t>Shizutetsu-Train-Bus-OneDay</t>
+  </si>
+  <si>
+    <t>電車・バス１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>电车·巴士一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shizutetsu-Train-Bus-OneDay.png</t>
+  </si>
+  <si>
+    <t>Oigawa-Free-Pass</t>
+  </si>
+  <si>
+    <t>大井川本線フリーきっぷ</t>
+  </si>
+  <si>
+    <t>大井川本线自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Oigawa-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Oigawa-Sumata-Tour</t>
+  </si>
+  <si>
+    <t>井川寸又峡周遊きっぷ</t>
+  </si>
+  <si>
+    <t>井川寸又峡周游券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Oigawa-Sumata-Tour.png</t>
+  </si>
+  <si>
+    <t>Oigawa-Kaiun-Ticket</t>
+  </si>
+  <si>
+    <t>開運たぬきっぷ</t>
+  </si>
+  <si>
+    <t>好运狸票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Oigawa-Kaiun-Ticket.png</t>
+  </si>
+  <si>
+    <t>Tenhama-OneDay-Free</t>
+  </si>
+  <si>
+    <t>１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>天竜浜名湖铁道一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tenhama-OneDay-Free.png</t>
+  </si>
+  <si>
+    <t>Tenhama-Mikan-Ticket</t>
+  </si>
+  <si>
+    <t>みかんきっぷ</t>
+  </si>
+  <si>
+    <t>蜜柑票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tenhama-Mikan-Ticket.png</t>
+  </si>
+  <si>
+    <t>Tenhama-Chabatake</t>
+  </si>
+  <si>
+    <t>茶畑きっぷ</t>
+  </si>
+  <si>
+    <t>茶园票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tenhama-Chabatake.png</t>
+  </si>
+  <si>
+    <t>Tenhama-Common-Route-West</t>
+  </si>
+  <si>
+    <t>遠鉄電車・天浜線共通1日フリーきっぷ(西ルート)</t>
+  </si>
+  <si>
+    <t>远铁电车·天浜线共通一日自由券(西线)</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tenhama-Common-Route-West.png</t>
+  </si>
+  <si>
+    <t>Tenhama-Common-Route-East</t>
+  </si>
+  <si>
+    <t>遠鉄電車・天浜線共通1日フリーきっぷ(東ルート)</t>
+  </si>
+  <si>
+    <t>远铁电车·天浜线共通一日自由券(东线)</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tenhama-Common-Route-East.png</t>
+  </si>
+  <si>
+    <t>Hamamatsu-Marutto-Pass</t>
+  </si>
+  <si>
+    <t>浜松まるっとパス</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hamamatsu-Marutto-Pass.png</t>
+  </si>
+  <si>
+    <t>Hamamatsu-Hamanako-Marutto-Pass</t>
+  </si>
+  <si>
+    <t>浜松・浜名湖まるっとパス</t>
+  </si>
+  <si>
+    <t>浜松·浜名湖全通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hamamatsu-Hamanako-Marutto-Pass.png</t>
+  </si>
+  <si>
+    <t>Toyotetsu-Atsumi-Line-Free</t>
+  </si>
+  <si>
+    <t>渥美線１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>丰桥铁道渥美线一日票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyotetsu-Atsumi-Line-Free.png</t>
+  </si>
+  <si>
+    <t>Toyotetsu-1Day-Free-Pass</t>
+  </si>
+  <si>
+    <t>1DAY FREE PASS</t>
+  </si>
+  <si>
+    <t>丰桥铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyotetsu-1Day-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Toyotetsu-Densha-Bus-1Day</t>
+  </si>
+  <si>
+    <t>いこまい豊橋 電車・バス1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>电车·公交一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyotetsu-Densha-Bus-1Day.png</t>
+  </si>
+  <si>
+    <t>Toyotetsu-Atsumi-Cycle</t>
+  </si>
+  <si>
+    <t>渥美半島サイクルきっぷ</t>
+  </si>
+  <si>
+    <t>渥美半岛自行车票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyotetsu-Atsumi-Cycle.png</t>
+  </si>
+  <si>
+    <t>Toyotetsu-Irago-1Day-Free</t>
+  </si>
+  <si>
+    <t>伊良湖１ＤＡＹフリーきっぷ</t>
+  </si>
+  <si>
+    <t>伊良湖1日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyotetsu-Irago-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Toyotetsu-Irago-2Day-Free</t>
+  </si>
+  <si>
+    <t>伊良湖２ＤＡＹフリーきっぷ</t>
+  </si>
+  <si>
+    <t>伊良湖2日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Toyotetsu-Irago-2Day-Free.png</t>
+  </si>
+  <si>
+    <t>Nagoya-Metro-24hr</t>
+  </si>
+  <si>
+    <t>地下鉄全線24時間券</t>
+  </si>
+  <si>
+    <t>名古屋地铁全线24小时券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagoya-Metro-24hr.png</t>
+  </si>
+  <si>
+    <t>Nagoya-Bus-Subway-1Day</t>
+  </si>
+  <si>
+    <t>バス・地下鉄全線一日乗車券</t>
+  </si>
+  <si>
+    <t>巴士·地铁全线一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagoya-Bus-Subway-1Day.png</t>
+  </si>
+  <si>
+    <t>Donichi-Eco-Kippu</t>
+  </si>
+  <si>
+    <t>ドニチエコきっぷ</t>
+  </si>
+  <si>
+    <t>周六日环保券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Donichi-Eco-Kippu.png</t>
+  </si>
+  <si>
+    <t>Meitetsu-2Day-Free</t>
+  </si>
+  <si>
+    <t>名鉄電車全線2DAYフリーきっぷ</t>
+  </si>
+  <si>
+    <t>名铁电车全线2日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Meitetsu-2Day-Free.png</t>
+  </si>
+  <si>
+    <t>Meitetsu-1Day-Free</t>
+  </si>
+  <si>
+    <t>名鉄電車全線1DAYフリーきっぷ</t>
+  </si>
+  <si>
+    <t>名铁电车全线1日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Meitetsu-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Kintetsu-Weekend-FreePass</t>
+  </si>
+  <si>
+    <t>近鉄週末フリーパス</t>
+  </si>
+  <si>
+    <t>近铁周末自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kintetsu-Weekend-FreePass.png</t>
+  </si>
+  <si>
+    <t>Aichi-Linimo-1Day-Free</t>
+  </si>
+  <si>
+    <t>1DAYフリーきっぷ</t>
+  </si>
+  <si>
+    <t>爱知高速交通1日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Aichi-Linimo-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Nagoya-Guideway-Mobile-Holiday</t>
+  </si>
+  <si>
+    <t>モバイルホリデー１日乗車券</t>
+  </si>
+  <si>
+    <t>名古屋导览公路移动假日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagoya-Guideway-Mobile-Holiday.png</t>
+  </si>
+  <si>
+    <t>Nagoya-Guideway-Holiday-Goods</t>
+  </si>
+  <si>
+    <t>グッズ付きホリデー１日乗車券</t>
+  </si>
+  <si>
+    <t>礼品附赠假日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagoya-Guideway-Holiday-Goods.png</t>
+  </si>
+  <si>
+    <t>Aonami-1Day-Pass</t>
+  </si>
+  <si>
+    <t>あおなみ線一日乗車券</t>
+  </si>
+  <si>
+    <t>名古屋临海高速一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Aonami-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Akechi-AllLine-Free</t>
+  </si>
+  <si>
+    <t>あけてつ全線フリー切符</t>
+  </si>
+  <si>
+    <t>明知铁道全线自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Akechi-AllLine-Free.png</t>
+  </si>
+  <si>
+    <t>Nagaragawa-1Day-Free</t>
+  </si>
+  <si>
+    <t>长良川铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagaragawa-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Yoro-Rail-Free-Pass</t>
+  </si>
+  <si>
+    <t>養老線フリーきっぷ</t>
+  </si>
+  <si>
+    <t>养老铁道自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yoro-Rail-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Tarumi-1Day-Free</t>
+  </si>
+  <si>
+    <t>樽见铁道一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tarumi-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Asunarou-1Day-Free</t>
+  </si>
+  <si>
+    <t>１dayフリーきっぷ</t>
+  </si>
+  <si>
+    <t>四日市あすなろう铁道一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Asunarou-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Sangi-Line-1Day-Free</t>
+  </si>
+  <si>
+    <t>三岐線一日乗車券</t>
+  </si>
+  <si>
+    <t>三岐铁道一日自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Sangi-Line-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Hokusei-Line-1Day-Free</t>
+  </si>
+  <si>
+    <t>北勢線一日乗車券</t>
+  </si>
+  <si>
+    <t>北势线一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hokusei-Line-1Day-Free.png</t>
+  </si>
+  <si>
+    <r>
+      <t>周六、周日、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>假日</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SL列車運転日 大人：4,800円／小人：2,400円
+SL列車運休日 大人：2,400円／小人：1,200円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>浜松全通票6小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浜松全通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浜松全通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -147,7 +826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +848,40 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,9 +905,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -535,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:AD151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -551,7 +1271,7 @@
     <col min="12" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -586,10 +1306,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
         <v>25</v>
@@ -634,42 +1354,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:30">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>830</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -680,17 +1382,11 @@
       <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
+      <c r="T2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W2" t="s">
         <v>23</v>
@@ -699,79 +1395,1290 @@
         <v>23</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z2">
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13">
+      <c r="AD2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G4">
+        <v>750</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="20">
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2620</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1310</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>234</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="20">
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2720</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1360</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s">
+        <v>234</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="20">
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8620</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4040</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>234</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G11" s="3">
+        <v>560</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2360</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1660</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="3">
+        <v>510</v>
+      </c>
+      <c r="G15" s="3">
+        <v>360</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="B16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3">
+        <v>750</v>
+      </c>
+      <c r="G17" s="3">
+        <v>310</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30">
+      <c r="B18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="3">
+        <v>700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>350</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G19" s="3">
+        <v>800</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="96">
+      <c r="B20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1500</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="11:13">
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30">
+      <c r="B22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="3">
+        <v>880</v>
+      </c>
+      <c r="G22" s="3">
+        <v>440</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="11:13">
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30">
+      <c r="B23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1950</v>
+      </c>
+      <c r="G23" s="3">
+        <v>980</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="11:13">
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30">
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1550</v>
+      </c>
+      <c r="G24" s="3">
+        <v>780</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="11:13">
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="B25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1550</v>
+      </c>
+      <c r="G25" s="3">
+        <v>780</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="11:13">
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30">
+      <c r="B26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>800</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="11:13">
+      <c r="T26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
+      <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>800</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="11:13">
+      <c r="T27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" ht="19">
+      <c r="B28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G28" s="3">
+        <v>600</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="11:13">
+      <c r="T28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30">
+      <c r="B29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G29" s="3">
+        <v>900</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="11:13">
+      <c r="T29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="B30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1400</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="11:13">
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="T30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30">
+      <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="B32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30">
+      <c r="B33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30">
+      <c r="B34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30">
+      <c r="B35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30">
+      <c r="B36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30">
+      <c r="B37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30">
+      <c r="B38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30">
+      <c r="B39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30">
+      <c r="B40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30">
+      <c r="B41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30">
+      <c r="B42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30">
+      <c r="B43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30">
+      <c r="B44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30">
+      <c r="B45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30">
+      <c r="B46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30">
+      <c r="B47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30">
+      <c r="B48" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30">
+      <c r="B49" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30">
+      <c r="B50" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30">
+      <c r="B51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30">
+      <c r="B52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30">
+      <c r="B53" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30">
+      <c r="B54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13">
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="K97">
+        <v>2330</v>
+      </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98">
-        <v>2330</v>
-      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
     </row>
     <row r="99" spans="11:13">
       <c r="K99" s="1"/>
@@ -1037,11 +2944,6 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="11:13">
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/toukai.xlsx
+++ b/src/excel-data/toukai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5585157-B102-3544-8B0D-CEF2F1580308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6225824-26FA-8A41-876E-A0BFCB90E1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="241">
   <si>
     <t>sortOrder</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>浜松・浜名湖まるっとパス</t>
-  </si>
-  <si>
-    <t>浜松·浜名湖全通票</t>
   </si>
   <si>
     <t>/images/coverage/Hamamatsu-Hamanako-Marutto-Pass.png</t>
@@ -821,12 +818,135 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浜松</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浜名湖全通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浜松</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浜名湖全通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浜松</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浜名湖全通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -883,6 +1003,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -905,16 +1040,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1255,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD151"/>
+  <dimension ref="A1:AD153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1605,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>60</v>
@@ -1640,7 +1776,7 @@
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>64</v>
@@ -1675,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>68</v>
@@ -2014,8 +2150,8 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="4" t="s">
-        <v>235</v>
+      <c r="M20" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>108</v>
@@ -2264,8 +2400,8 @@
       <c r="B28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>236</v>
+      <c r="C28" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="E28" s="3">
         <v>1200</v>
@@ -2287,8 +2423,8 @@
       <c r="B29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>237</v>
+      <c r="C29" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="E29" s="3">
         <v>1800</v>
@@ -2310,8 +2446,8 @@
       <c r="B30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>238</v>
+      <c r="C30" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E30" s="3">
         <v>2800</v>
@@ -2333,11 +2469,17 @@
       <c r="B31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="AD31" s="2" t="s">
         <v>141</v>
@@ -2345,334 +2487,617 @@
     </row>
     <row r="32" spans="2:30">
       <c r="B32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1400</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="2:30">
       <c r="B33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1800</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:30">
       <c r="B34" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G34" s="3">
+        <v>550</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:30">
       <c r="B35" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="E35" s="3">
+        <v>550</v>
+      </c>
+      <c r="G35" s="3">
+        <v>280</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:30">
       <c r="B36" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G36" s="3">
+        <v>550</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:30">
       <c r="B37" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G37" s="3">
+        <v>650</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:30">
       <c r="B38" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1050</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="2:30">
       <c r="B39" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1650</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:30">
       <c r="B40" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
+      </c>
+      <c r="E40" s="3">
+        <v>760</v>
+      </c>
+      <c r="G40" s="3">
+        <v>380</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:30">
       <c r="B41" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="E41" s="3">
+        <v>870</v>
+      </c>
+      <c r="G41" s="3">
+        <v>430</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:30">
       <c r="B42" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="E42" s="3">
+        <v>620</v>
+      </c>
+      <c r="G42" s="3">
+        <v>310</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="2:30">
       <c r="B43" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N43" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>23</v>
+      </c>
+      <c r="R43" t="s">
+        <v>24</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:30">
       <c r="B44" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" s="6">
+        <v>1</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="2:30">
       <c r="B45" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" t="s">
+        <v>24</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="2:30">
       <c r="B46" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" s="6">
+        <v>1</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="2:30">
       <c r="B47" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
+      </c>
+      <c r="E47" s="3">
+        <v>500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>250</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" s="6">
+        <v>1</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="2:30">
       <c r="B48" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1000</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="2:30">
       <c r="B49" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>400</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="2:30">
       <c r="B50" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1380</v>
+      </c>
+      <c r="G50" s="3">
+        <v>700</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" s="6">
+        <v>1</v>
+      </c>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="2:30">
       <c r="B51" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1350</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" s="6">
+        <v>1</v>
+      </c>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="2:30">
       <c r="B52" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>750</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" s="6">
+        <v>1</v>
+      </c>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:30">
       <c r="B53" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G53" s="3">
+        <v>800</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="6">
+        <v>1</v>
+      </c>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:30">
       <c r="B54" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="3">
+        <v>550</v>
+      </c>
+      <c r="G54" s="3">
+        <v>280</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" s="6">
+        <v>1</v>
+      </c>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30">
+      <c r="B55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G55" s="3">
+        <v>600</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30">
+      <c r="B56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G56" s="3">
+        <v>600</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD56" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD54" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="11:13">
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="11:13">
-      <c r="K97">
-        <v>2330</v>
       </c>
     </row>
     <row r="98" spans="11:13">
@@ -2681,9 +3106,9 @@
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
+      <c r="K99">
+        <v>2330</v>
+      </c>
     </row>
     <row r="100" spans="11:13">
       <c r="K100" s="1"/>
@@ -2944,6 +3369,16 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="11:13">
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/toukai.xlsx
+++ b/src/excel-data/toukai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6225824-26FA-8A41-876E-A0BFCB90E1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7113057-5803-8341-B46D-70E8AE94ACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="242">
   <si>
     <t>sortOrder</t>
   </si>
@@ -939,6 +939,10 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1393,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1489,6 +1493,9 @@
       <c r="AA1" t="s">
         <v>22</v>
       </c>
+      <c r="AB1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="2" t="s">
